--- a/02_meter_data/meter_sizing_graphs/uncertainty_summary.xlsx
+++ b/02_meter_data/meter_sizing_graphs/uncertainty_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sea/PycharmProjects/CRF22_Airplanes/02_meter_data/meter_sizing_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B906C-BAFD-7941-A389-6578C56D265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5208644A-7BEA-4642-9C90-7A2C3A934D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="760" windowWidth="33360" windowHeight="16940" activeTab="2" xr2:uid="{BA59B2C7-F1E3-E647-91B8-3B4014987930}"/>
+    <workbookView xWindow="300" yWindow="760" windowWidth="33360" windowHeight="16940" activeTab="2" xr2:uid="{BA59B2C7-F1E3-E647-91B8-3B4014987930}"/>
   </bookViews>
   <sheets>
     <sheet name="baby_corey" sheetId="1" r:id="rId1"/>
@@ -4017,7 +4017,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C23"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
